--- a/DatabaseNvidia.xlsx
+++ b/DatabaseNvidia.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c651f52a76c0d64/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_F123FF39AEFD7747A772366A10415906752E6CB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8FF22FA-B38F-44D9-949C-641835E4A5B4}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="11_F123FF39AEFD7747A772366A10415906752E6CB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F21120E-6124-4A6A-A2A9-17BD3A172655}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NVIDIA" sheetId="1" r:id="rId1"/>
-    <sheet name="AMD" sheetId="2" r:id="rId2"/>
-    <sheet name="Intel" sheetId="3" r:id="rId3"/>
-    <sheet name="Macroeconomicos" sheetId="4" r:id="rId4"/>
+    <sheet name="DATA" sheetId="6" r:id="rId1"/>
+    <sheet name="SharpeRatio" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
+    <sheet name="NVIDIA" sheetId="1" r:id="rId4"/>
+    <sheet name="AMD" sheetId="2" r:id="rId5"/>
+    <sheet name="Intel" sheetId="3" r:id="rId6"/>
+    <sheet name="Macroeconomicos" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="1" hidden="1">AMD!$A$1:$G$7</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">NVIDIA!#REF!</definedName>
+    <definedName name="DatosExternos_1" localSheetId="4" hidden="1">AMD!$A$1:$G$7</definedName>
+    <definedName name="DatosExternos_1" localSheetId="3" hidden="1">NVIDIA!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>IPC</t>
   </si>
@@ -82,6 +85,120 @@
   </si>
   <si>
     <t>AMD</t>
+  </si>
+  <si>
+    <t>Precio NVDIA</t>
+  </si>
+  <si>
+    <t>Revenue NVIDIA</t>
+  </si>
+  <si>
+    <t>Gross Margin NVIDIA</t>
+  </si>
+  <si>
+    <t>Net Income NVIDIA</t>
+  </si>
+  <si>
+    <t>Data Center NVIDIA</t>
+  </si>
+  <si>
+    <t>Free cashflow NVIDIA</t>
+  </si>
+  <si>
+    <t>Precio AMD</t>
+  </si>
+  <si>
+    <t>Revenue AMD</t>
+  </si>
+  <si>
+    <t>Gross Margin AMD</t>
+  </si>
+  <si>
+    <t>Net Income AMD</t>
+  </si>
+  <si>
+    <t>Data Center AMD</t>
+  </si>
+  <si>
+    <t>Free cashflow AMD</t>
+  </si>
+  <si>
+    <t>Precio INTEL</t>
+  </si>
+  <si>
+    <t>Revenue INTEL</t>
+  </si>
+  <si>
+    <t>Gross Margin INTEL</t>
+  </si>
+  <si>
+    <t>Net Income INTEL</t>
+  </si>
+  <si>
+    <t>Data Center INTEL</t>
+  </si>
+  <si>
+    <t>Free cashflow INTEL</t>
+  </si>
+  <si>
+    <t>3 MONTHS TREASURY BILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AVARAGE RETURNS TB</t>
+  </si>
+  <si>
+    <t>QUARTERLY RETURNS NVIDIA</t>
+  </si>
+  <si>
+    <t>AVARAGE RETURNS NVDIA</t>
+  </si>
+  <si>
+    <t>VOLATILITY NVIDIA</t>
+  </si>
+  <si>
+    <t>SHARPE RATIO NVIDIA</t>
+  </si>
+  <si>
+    <t>QUARTERLY RETURNS AMD</t>
+  </si>
+  <si>
+    <t>QUARTERLY RETURNS INTEL</t>
+  </si>
+  <si>
+    <t>PRICE NVDIA</t>
+  </si>
+  <si>
+    <t>PRICE AMD</t>
+  </si>
+  <si>
+    <t>PRICE INTEL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>AVARAGE RETURNS AMD</t>
+  </si>
+  <si>
+    <t>AVARAGE RETURNS INTEL</t>
+  </si>
+  <si>
+    <t>VOLATILITY AMD</t>
+  </si>
+  <si>
+    <t>VOLATILITY INTEL</t>
+  </si>
+  <si>
+    <t>SHARPE RATIO AMD</t>
+  </si>
+  <si>
+    <t>SHARPE RATIO INTEL</t>
+  </si>
+  <si>
+    <t>QUARTERLY RETURNS TB 3MONTHS</t>
   </si>
 </sst>
 </file>
@@ -94,7 +211,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +252,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -162,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -221,13 +344,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE5E5E5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE5E5E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -282,6 +416,14 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -621,11 +763,1450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9650210-2FDC-4EA4-9F65-80DB2E46C026}">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37">
+        <v>44743</v>
+      </c>
+      <c r="B2" s="5">
+        <v>14.96</v>
+      </c>
+      <c r="C2" s="4">
+        <f>1000000*6704</f>
+        <v>6704000000</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.435</v>
+      </c>
+      <c r="E2" s="4">
+        <f>1000000*656</f>
+        <v>656000000</v>
+      </c>
+      <c r="F2" s="4">
+        <f>1000000*3806</f>
+        <v>3806000000</v>
+      </c>
+      <c r="G2" s="4">
+        <f>1000000*824</f>
+        <v>824000000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>75.2</v>
+      </c>
+      <c r="I2" s="15">
+        <f>1000000*655</f>
+        <v>655000000</v>
+      </c>
+      <c r="J2" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="K2" s="4">
+        <f>1000000*447</f>
+        <v>447000000</v>
+      </c>
+      <c r="L2" s="4">
+        <f>1000000*1486</f>
+        <v>1486000000</v>
+      </c>
+      <c r="M2" s="4">
+        <f>1000000*906</f>
+        <v>906000000</v>
+      </c>
+      <c r="N2" s="5">
+        <v>36.69</v>
+      </c>
+      <c r="O2" s="4">
+        <f>1000000000*15.3</f>
+        <v>15300000000</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>1000000000*-0.5</f>
+        <v>-500000000</v>
+      </c>
+      <c r="R2" s="4">
+        <f>1000000000*4.6</f>
+        <v>4600000000</v>
+      </c>
+      <c r="S2" s="4">
+        <f>1000000*-6.381</f>
+        <v>-6381000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37">
+        <v>44835</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12.51</v>
+      </c>
+      <c r="C3" s="4">
+        <f>1000000*5931</f>
+        <v>5931000000</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E3" s="4">
+        <f>1000000*680</f>
+        <v>680000000</v>
+      </c>
+      <c r="F3" s="4">
+        <f>1000000*3833</f>
+        <v>3833000000</v>
+      </c>
+      <c r="G3" s="4">
+        <f>1000000*-156</f>
+        <v>-156000000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>66.11</v>
+      </c>
+      <c r="I3" s="15">
+        <f>1000000*5565</f>
+        <v>5565000000</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="K3" s="4">
+        <f>1000000*66</f>
+        <v>66000000</v>
+      </c>
+      <c r="L3" s="4">
+        <f>1000000*1609</f>
+        <v>1609000000</v>
+      </c>
+      <c r="M3" s="4">
+        <f>1000000*842</f>
+        <v>842000000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>26.97</v>
+      </c>
+      <c r="O3" s="4">
+        <f>1000000000*15.3</f>
+        <v>15300000000</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>1000000000*1</f>
+        <v>1000000000</v>
+      </c>
+      <c r="R3" s="4">
+        <f>1000000000*4.2</f>
+        <v>4200000000</v>
+      </c>
+      <c r="S3" s="4">
+        <f>1000000*-6308</f>
+        <v>-6308000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37">
+        <v>44927</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14.31</v>
+      </c>
+      <c r="C4" s="9">
+        <f>1000000*6051</f>
+        <v>6051000000</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <f>1000000*1414</f>
+        <v>1414000000</v>
+      </c>
+      <c r="F4" s="11">
+        <f>1000000*3616</f>
+        <v>3616000000</v>
+      </c>
+      <c r="G4" s="4">
+        <f>1000000*1736</f>
+        <v>1736000000</v>
+      </c>
+      <c r="H4" s="13">
+        <v>64.02</v>
+      </c>
+      <c r="I4" s="15">
+        <f>1000000*5599</f>
+        <v>5599000000</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="K4" s="4">
+        <f>1000000*21</f>
+        <v>21000000</v>
+      </c>
+      <c r="L4" s="4">
+        <f>1000000*1655</f>
+        <v>1655000000</v>
+      </c>
+      <c r="M4" s="4">
+        <f>1000000*443</f>
+        <v>443000000</v>
+      </c>
+      <c r="N4" s="5">
+        <v>26.73</v>
+      </c>
+      <c r="O4" s="4">
+        <f>1000000000*14</f>
+        <v>14000000000</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>1000000000*-0.7</f>
+        <v>-700000000</v>
+      </c>
+      <c r="R4" s="4">
+        <f>1000000000*4.3</f>
+        <v>4300000000</v>
+      </c>
+      <c r="S4" s="4">
+        <f>1000000*3064</f>
+        <v>3064000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
+        <v>45017</v>
+      </c>
+      <c r="B5" s="5">
+        <v>27.97</v>
+      </c>
+      <c r="C5" s="4">
+        <f>1000000*7192</f>
+        <v>7192000000</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <f>1000000*2043</f>
+        <v>2043000000</v>
+      </c>
+      <c r="F5" s="4">
+        <f>1000000*4284</f>
+        <v>4284000000</v>
+      </c>
+      <c r="G5" s="4">
+        <f>1000000*2643</f>
+        <v>2643000000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>96.56</v>
+      </c>
+      <c r="I5" s="16">
+        <f>1000000*5353</f>
+        <v>5353000000</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0.44</v>
+      </c>
+      <c r="K5" s="11">
+        <f>1000000*-139</f>
+        <v>-139000000</v>
+      </c>
+      <c r="L5" s="9">
+        <f>1000000*1295</f>
+        <v>1295000000</v>
+      </c>
+      <c r="M5" s="11">
+        <f>1000000*328</f>
+        <v>328000000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>32.89</v>
+      </c>
+      <c r="O5" s="4">
+        <f>1000000000*11.7</f>
+        <v>11700000000</v>
+      </c>
+      <c r="P5" s="24">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>1000000000*-2.8</f>
+        <v>-2800000000</v>
+      </c>
+      <c r="R5" s="4">
+        <f>1000000000*3.7</f>
+        <v>3700000000</v>
+      </c>
+      <c r="S5" s="4">
+        <f>1000000*-8.764</f>
+        <v>-8764000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
+        <v>45108</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42.41</v>
+      </c>
+      <c r="C6" s="4">
+        <f>1000000*13507</f>
+        <v>13507000000</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E6" s="4">
+        <f>1000000*6188</f>
+        <v>6188000000</v>
+      </c>
+      <c r="F6" s="4">
+        <f>1000000*10323</f>
+        <v>10323000000</v>
+      </c>
+      <c r="G6" s="4">
+        <f>1000000*6048</f>
+        <v>6048000000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>115.82</v>
+      </c>
+      <c r="I6" s="16">
+        <f>1000000*5359</f>
+        <v>5359000000</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.46</v>
+      </c>
+      <c r="K6" s="11">
+        <f>1000000*27</f>
+        <v>27000000</v>
+      </c>
+      <c r="L6" s="4">
+        <f>1000000*1321</f>
+        <v>1321000000</v>
+      </c>
+      <c r="M6" s="4">
+        <f>1000000*254</f>
+        <v>254000000</v>
+      </c>
+      <c r="N6" s="5">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="O6" s="4">
+        <f>1000000000*12.9</f>
+        <v>12900000000</v>
+      </c>
+      <c r="P6" s="24">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>1000000000*1.5</f>
+        <v>1500000000</v>
+      </c>
+      <c r="R6" s="4">
+        <f>1000000000*4</f>
+        <v>4000000000</v>
+      </c>
+      <c r="S6" s="4">
+        <f>-1000000*2727</f>
+        <v>-2727000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
+        <v>45200</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44.78</v>
+      </c>
+      <c r="C7" s="9">
+        <f>1000000*18120</f>
+        <v>18120000000</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E7" s="9">
+        <f>1000000*9243</f>
+        <v>9243000000</v>
+      </c>
+      <c r="F7" s="11">
+        <f>1000000*14514</f>
+        <v>14514000000</v>
+      </c>
+      <c r="G7" s="4">
+        <f>1000000*7042</f>
+        <v>7042000000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>103.27</v>
+      </c>
+      <c r="I7" s="17">
+        <f>5800*1000000</f>
+        <v>5800000000</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.47</v>
+      </c>
+      <c r="K7" s="12">
+        <f>299*1000000</f>
+        <v>299000000</v>
+      </c>
+      <c r="L7" s="9">
+        <f>1598*1000000</f>
+        <v>1598000000</v>
+      </c>
+      <c r="M7" s="11">
+        <f>297*1000000</f>
+        <v>297000000</v>
+      </c>
+      <c r="N7" s="5">
+        <v>35.69</v>
+      </c>
+      <c r="O7" s="4">
+        <f>1000000000*14.2</f>
+        <v>14200000000</v>
+      </c>
+      <c r="P7" s="24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>1000000000*0.3</f>
+        <v>300000000</v>
+      </c>
+      <c r="R7" s="4">
+        <f>1000000000*3.8</f>
+        <v>3800000000</v>
+      </c>
+      <c r="S7" s="11">
+        <f>1000000*943</f>
+        <v>943000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
+        <v>45292</v>
+      </c>
+      <c r="B8" s="5">
+        <v>48.17</v>
+      </c>
+      <c r="C8" s="10">
+        <f>1000000*22103</f>
+        <v>22103000000</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.76</v>
+      </c>
+      <c r="E8" s="10">
+        <f>1000000*12285</f>
+        <v>12285000000</v>
+      </c>
+      <c r="F8" s="12">
+        <f>1000000*18404</f>
+        <v>18404000000</v>
+      </c>
+      <c r="G8" s="4">
+        <f>1000000*11217</f>
+        <v>11217000000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>138.58000000000001</v>
+      </c>
+      <c r="I8" s="16">
+        <f>1000000*6168</f>
+        <v>6168000000</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.47</v>
+      </c>
+      <c r="K8" s="11">
+        <f>1000000*667</f>
+        <v>667000000</v>
+      </c>
+      <c r="L8" s="9">
+        <f>1000000*2282</f>
+        <v>2282000000</v>
+      </c>
+      <c r="M8" s="11">
+        <f>1000000*242</f>
+        <v>242000000</v>
+      </c>
+      <c r="N8" s="5">
+        <v>47.8</v>
+      </c>
+      <c r="O8" s="4">
+        <f>1000000000*15.4</f>
+        <v>15400000000</v>
+      </c>
+      <c r="P8" s="24">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>1000000000*2.7</f>
+        <v>2700000000</v>
+      </c>
+      <c r="R8" s="4">
+        <f>1000000000*4</f>
+        <v>4000000000</v>
+      </c>
+      <c r="S8" s="11">
+        <f>1000000*-1305</f>
+        <v>-1305000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
+        <v>45383</v>
+      </c>
+      <c r="B9" s="5">
+        <v>89.45</v>
+      </c>
+      <c r="C9" s="4">
+        <f>1000000*26044</f>
+        <v>26044000000</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E9" s="4">
+        <f>1000000*14881</f>
+        <v>14881000000</v>
+      </c>
+      <c r="F9" s="4">
+        <f>1000000*22563</f>
+        <v>22563000000</v>
+      </c>
+      <c r="G9" s="4">
+        <f>1000000*14936</f>
+        <v>14936000000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>178.7</v>
+      </c>
+      <c r="I9" s="16">
+        <f>1000000*5473</f>
+        <v>5473000000</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.47</v>
+      </c>
+      <c r="K9" s="11">
+        <f>1000000*123</f>
+        <v>123000000</v>
+      </c>
+      <c r="L9" s="9">
+        <f>1000000*2337</f>
+        <v>2337000000</v>
+      </c>
+      <c r="M9" s="11">
+        <f>1000000*379</f>
+        <v>379000000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>43.94</v>
+      </c>
+      <c r="O9" s="4">
+        <f>1000000000*12.7</f>
+        <v>12700000000</v>
+      </c>
+      <c r="P9" s="24">
+        <v>0.41</v>
+      </c>
+      <c r="Q9" s="11">
+        <f>1000000000*-0.4</f>
+        <v>-400000000</v>
+      </c>
+      <c r="R9" s="4">
+        <f>1000000000*3</f>
+        <v>3000000000</v>
+      </c>
+      <c r="S9" s="4">
+        <f>-1000000*6178</f>
+        <v>-6178000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>45474</v>
+      </c>
+      <c r="B10" s="5">
+        <v>122.67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>1000000*30040</f>
+        <v>30040000000</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.751</v>
+      </c>
+      <c r="E10" s="4">
+        <f>1000000*16599</f>
+        <v>16599000000</v>
+      </c>
+      <c r="F10" s="4">
+        <f>1000000*26272</f>
+        <v>26272000000</v>
+      </c>
+      <c r="G10" s="4">
+        <f>1000000*13483</f>
+        <v>13483000000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>163.9</v>
+      </c>
+      <c r="I10" s="16">
+        <f>1000000*5835</f>
+        <v>5835000000</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0.49</v>
+      </c>
+      <c r="K10" s="11">
+        <f>1000000*265</f>
+        <v>265000000</v>
+      </c>
+      <c r="L10" s="9">
+        <f>1000000*2834</f>
+        <v>2834000000</v>
+      </c>
+      <c r="M10" s="11">
+        <f>1000000*439</f>
+        <v>439000000</v>
+      </c>
+      <c r="N10" s="5">
+        <v>31.07</v>
+      </c>
+      <c r="O10" s="4">
+        <f>1000000000*12.8</f>
+        <v>12800000000</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>1000000000*1.6</f>
+        <v>1600000000</v>
+      </c>
+      <c r="R10" s="4">
+        <f>1000000000*3</f>
+        <v>3000000000</v>
+      </c>
+      <c r="S10" s="4">
+        <f>8155*1000000</f>
+        <v>8155000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>45566</v>
+      </c>
+      <c r="B11" s="5">
+        <v>118.85</v>
+      </c>
+      <c r="C11" s="4">
+        <f>1000000*35082</f>
+        <v>35082000000</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.746</v>
+      </c>
+      <c r="E11" s="4">
+        <f>1000000*19309</f>
+        <v>19309000000</v>
+      </c>
+      <c r="F11" s="4">
+        <f>1000000*30771</f>
+        <v>30771000000</v>
+      </c>
+      <c r="G11" s="4">
+        <f>1000000*16787</f>
+        <v>16787000000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>159.78</v>
+      </c>
+      <c r="I11" s="16">
+        <f>6819*1000000</f>
+        <v>6819000000</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="11">
+        <f>771*1000000</f>
+        <v>771000000</v>
+      </c>
+      <c r="L11" s="9">
+        <f>1000000*3549</f>
+        <v>3549000000</v>
+      </c>
+      <c r="M11" s="11">
+        <f>1000000*496</f>
+        <v>496000000</v>
+      </c>
+      <c r="N11" s="5">
+        <v>22.26</v>
+      </c>
+      <c r="O11" s="4">
+        <f>1000000000*13.3</f>
+        <v>13300000000</v>
+      </c>
+      <c r="P11" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>1000000000*-16.6</f>
+        <v>-16600000000.000002</v>
+      </c>
+      <c r="R11" s="9">
+        <f>1000000000*3.3</f>
+        <v>3300000000</v>
+      </c>
+      <c r="S11" s="11">
+        <f>-2702*1000000</f>
+        <v>-2702000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>45658</v>
+      </c>
+      <c r="B12" s="5">
+        <v>138.31</v>
+      </c>
+      <c r="C12" s="4">
+        <f>1000000*39331</f>
+        <v>39331000000</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="E12" s="4">
+        <f>1000000*22091</f>
+        <v>22091000000</v>
+      </c>
+      <c r="F12" s="4">
+        <f>1000000*35580</f>
+        <v>35580000000</v>
+      </c>
+      <c r="G12" s="4">
+        <f>1000000*15519</f>
+        <v>15519000000</v>
+      </c>
+      <c r="H12" s="13">
+        <v>120.63</v>
+      </c>
+      <c r="I12" s="19">
+        <f>7658*1000000</f>
+        <v>7658000000</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0.51</v>
+      </c>
+      <c r="K12" s="20">
+        <f>482*1000000</f>
+        <v>482000000</v>
+      </c>
+      <c r="L12" s="20">
+        <f>3859*1000000</f>
+        <v>3859000000</v>
+      </c>
+      <c r="M12" s="21">
+        <f>1000000*1091</f>
+        <v>1091000000</v>
+      </c>
+      <c r="N12" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="O12" s="4">
+        <f>14.3*1000000000</f>
+        <v>14300000000</v>
+      </c>
+      <c r="P12" s="24">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>1000000000*-0.1</f>
+        <v>-100000000</v>
+      </c>
+      <c r="R12" s="4">
+        <f>1000000000*3.4</f>
+        <v>3400000000</v>
+      </c>
+      <c r="S12" s="23">
+        <f>-1503*1000000</f>
+        <v>-1503000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D244D47E-F587-4530-8B7C-6B1EF2C67FC9}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37">
+        <v>44743</v>
+      </c>
+      <c r="B2" s="5">
+        <v>14.96</v>
+      </c>
+      <c r="C2" s="5">
+        <v>75.2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>36.69</v>
+      </c>
+      <c r="H2" s="41">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="K2" s="40">
+        <f>AVERAGE(I2:I12)</f>
+        <v>0.12967994393448534</v>
+      </c>
+      <c r="L2" s="40">
+        <f>AVERAGE(E2:E12)</f>
+        <v>0.29434868910135636</v>
+      </c>
+      <c r="M2" s="40">
+        <f>AVERAGE(F2:F12)</f>
+        <v>7.2533575438118739E-2</v>
+      </c>
+      <c r="N2" s="40">
+        <f>AVERAGE(G2:G12)</f>
+        <v>-3.6914202054846433E-2</v>
+      </c>
+      <c r="O2" s="40">
+        <f>_xlfn.STDEV.P(E2:E12)</f>
+        <v>0.35606280875635526</v>
+      </c>
+      <c r="P2" s="40">
+        <f>_xlfn.STDEV.P(F2:F12)</f>
+        <v>0.23262088818317905</v>
+      </c>
+      <c r="Q2" s="40">
+        <f>_xlfn.STDEV.P(G2:G12)</f>
+        <v>0.2025518329035465</v>
+      </c>
+      <c r="R2" s="40">
+        <f>(L2-$K$2)/O2</f>
+        <v>0.46247106161415935</v>
+      </c>
+      <c r="S2" s="40">
+        <f>(M2-$K$2)/P2</f>
+        <v>-0.24566309991631649</v>
+      </c>
+      <c r="T2" s="40">
+        <f>(N2-$K$2)/Q2</f>
+        <v>-0.82247661549753803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37">
+        <v>44835</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12.51</v>
+      </c>
+      <c r="C3" s="5">
+        <v>66.11</v>
+      </c>
+      <c r="D3" s="5">
+        <v>26.97</v>
+      </c>
+      <c r="E3" s="40">
+        <f>(B3-B2)/B2</f>
+        <v>-0.1637700534759359</v>
+      </c>
+      <c r="F3" s="40">
+        <f>(C3-C2)/C2</f>
+        <v>-0.12087765957446812</v>
+      </c>
+      <c r="G3" s="40">
+        <f>(D3-D2)/D2</f>
+        <v>-0.26492232215862632</v>
+      </c>
+      <c r="H3" s="42">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="I3" s="40">
+        <f>(H3-H2)/H2</f>
+        <v>0.93130227001194754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
+        <v>44927</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14.31</v>
+      </c>
+      <c r="C4" s="13">
+        <v>64.02</v>
+      </c>
+      <c r="D4" s="5">
+        <v>26.73</v>
+      </c>
+      <c r="E4" s="40">
+        <f>(B4-B3)/B3</f>
+        <v>0.14388489208633098</v>
+      </c>
+      <c r="F4" s="40">
+        <f>(C4-C3)/C3</f>
+        <v>-3.1613976705490904E-2</v>
+      </c>
+      <c r="G4" s="40">
+        <f>(D4-D3)/D3</f>
+        <v>-8.8987764182424343E-3</v>
+      </c>
+      <c r="H4" s="41">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="I4" s="40">
+        <f>(H4-H3)/H3</f>
+        <v>0.35632539437055355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
+        <v>45017</v>
+      </c>
+      <c r="B5" s="5">
+        <v>27.97</v>
+      </c>
+      <c r="C5" s="5">
+        <v>96.56</v>
+      </c>
+      <c r="D5" s="5">
+        <v>32.89</v>
+      </c>
+      <c r="E5" s="40">
+        <f>(B5-B4)/B4</f>
+        <v>0.95457721872816192</v>
+      </c>
+      <c r="F5" s="40">
+        <f>(C5-C4)/C4</f>
+        <v>0.5082786629178383</v>
+      </c>
+      <c r="G5" s="40">
+        <f>(D5-D4)/D4</f>
+        <v>0.23045267489711935</v>
+      </c>
+      <c r="H5" s="42">
+        <v>4.8140000000000001</v>
+      </c>
+      <c r="I5" s="40">
+        <f>(H5-H4)/H4</f>
+        <v>9.7833523375142603E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
+        <v>45108</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42.41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>115.82</v>
+      </c>
+      <c r="D6" s="5">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="E6" s="40">
+        <f>(B6-B5)/B5</f>
+        <v>0.51626742938863057</v>
+      </c>
+      <c r="F6" s="40">
+        <f>(C6-C5)/C5</f>
+        <v>0.19946147473073728</v>
+      </c>
+      <c r="G6" s="40">
+        <f>(D6-D5)/D5</f>
+        <v>2.2195196108239491E-2</v>
+      </c>
+      <c r="H6" s="41">
+        <v>5.306</v>
+      </c>
+      <c r="I6" s="40">
+        <f>(H6-H5)/H5</f>
+        <v>0.10220191109264644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
+        <v>45200</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44.78</v>
+      </c>
+      <c r="C7" s="5">
+        <v>103.27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>35.69</v>
+      </c>
+      <c r="E7" s="40">
+        <f>(B7-B6)/B6</f>
+        <v>5.5883046451308767E-2</v>
+      </c>
+      <c r="F7" s="40">
+        <f>(C7-C6)/C6</f>
+        <v>-0.10835779658090137</v>
+      </c>
+      <c r="G7" s="40">
+        <f>(D7-D6)/D6</f>
+        <v>6.1570493753718036E-2</v>
+      </c>
+      <c r="H7" s="42">
+        <v>5.468</v>
+      </c>
+      <c r="I7" s="40">
+        <f>(H7-H6)/H6</f>
+        <v>3.0531473803241598E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37">
+        <v>45292</v>
+      </c>
+      <c r="B8" s="5">
+        <v>48.17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>138.58000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>47.8</v>
+      </c>
+      <c r="E8" s="40">
+        <f>(B8-B7)/B7</f>
+        <v>7.5703439035283621E-2</v>
+      </c>
+      <c r="F8" s="40">
+        <f>(C8-C7)/C7</f>
+        <v>0.34191924082502195</v>
+      </c>
+      <c r="G8" s="40">
+        <f>(D8-D7)/D7</f>
+        <v>0.33931073129728218</v>
+      </c>
+      <c r="H8" s="41">
+        <v>5.3680000000000003</v>
+      </c>
+      <c r="I8" s="40">
+        <f>(H8-H7)/H7</f>
+        <v>-1.8288222384784135E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37">
+        <v>45383</v>
+      </c>
+      <c r="B9" s="5">
+        <v>89.45</v>
+      </c>
+      <c r="C9" s="5">
+        <v>178.7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43.94</v>
+      </c>
+      <c r="E9" s="40">
+        <f>(B9-B8)/B8</f>
+        <v>0.85696491592277346</v>
+      </c>
+      <c r="F9" s="40">
+        <f>(C9-C8)/C8</f>
+        <v>0.2895078654928559</v>
+      </c>
+      <c r="G9" s="40">
+        <f>(D9-D8)/D8</f>
+        <v>-8.0753138075313799E-2</v>
+      </c>
+      <c r="H9" s="41">
+        <v>5.359</v>
+      </c>
+      <c r="I9" s="40">
+        <f>(H9-H8)/H8</f>
+        <v>-1.6766020864382154E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>45474</v>
+      </c>
+      <c r="B10" s="5">
+        <v>122.67</v>
+      </c>
+      <c r="C10" s="5">
+        <v>163.9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>31.07</v>
+      </c>
+      <c r="E10" s="40">
+        <f>(B10-B9)/B9</f>
+        <v>0.37138065958636107</v>
+      </c>
+      <c r="F10" s="40">
+        <f>(C10-C9)/C9</f>
+        <v>-8.2820369334079366E-2</v>
+      </c>
+      <c r="G10" s="40">
+        <f>(D10-D9)/D9</f>
+        <v>-0.29289940828402361</v>
+      </c>
+      <c r="H10" s="42">
+        <v>5.359</v>
+      </c>
+      <c r="I10" s="40">
+        <f>(H10-H9)/H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>45566</v>
+      </c>
+      <c r="B11" s="5">
+        <v>118.85</v>
+      </c>
+      <c r="C11" s="5">
+        <v>159.78</v>
+      </c>
+      <c r="D11" s="5">
+        <v>22.26</v>
+      </c>
+      <c r="E11" s="40">
+        <f>(B11-B10)/B10</f>
+        <v>-3.1140458139724523E-2</v>
+      </c>
+      <c r="F11" s="40">
+        <f>(C11-C10)/C10</f>
+        <v>-2.5137278828554023E-2</v>
+      </c>
+      <c r="G11" s="40">
+        <f>(D11-D10)/D10</f>
+        <v>-0.2835532668168651</v>
+      </c>
+      <c r="H11" s="42">
+        <v>4.5890000000000004</v>
+      </c>
+      <c r="I11" s="40">
+        <f>(H11-H10)/H10</f>
+        <v>-0.14368352304534421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>45658</v>
+      </c>
+      <c r="B12" s="5">
+        <v>138.31</v>
+      </c>
+      <c r="C12" s="13">
+        <v>120.63</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="E12" s="40">
+        <f>(B12-B11)/B11</f>
+        <v>0.1637358014303745</v>
+      </c>
+      <c r="F12" s="40">
+        <f>(C12-C11)/C11</f>
+        <v>-0.24502440856177246</v>
+      </c>
+      <c r="G12" s="40">
+        <f>(D12-D11)/D11</f>
+        <v>-9.1644204851752134E-2</v>
+      </c>
+      <c r="H12" s="42">
+        <v>4.3239999999999998</v>
+      </c>
+      <c r="I12" s="40">
+        <f>(H12-H11)/H11</f>
+        <v>-5.7746785792111691E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8352F03B-94C6-497E-BB00-05546DCC725E}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>45658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,12 +2581,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,12 +2961,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,11 +3341,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD54BB7-171B-4E5B-B2FD-6291C2EC45C9}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
